--- a/conf/shell_bi/other.xlsx
+++ b/conf/shell_bi/other.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16800"/>
+    <workbookView windowWidth="25880" windowHeight="12020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>testcase</t>
   </si>
@@ -116,16 +116,19 @@
   <si>
     <t>{'authorization':'${authorization}'}</t>
   </si>
+  <si>
+    <t>status=200;time&lt;8000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -163,8 +166,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,25 +228,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,13 +251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -232,9 +259,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,13 +274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -263,16 +282,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,21 +298,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,7 +330,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +360,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +402,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +438,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,127 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,16 +516,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,17 +592,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,148 +614,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,8 +1102,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M$1:M$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -17602,7 +17605,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
